--- a/nr-rm-extension-nationality/ig/StructureDefinition-as-dp-practitioner.xlsx
+++ b/nr-rm-extension-nationality/ig/StructureDefinition-as-dp-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T12:07:38+00:00</t>
+    <t>2025-10-08T12:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1870,7 +1870,7 @@
   </si>
   <si>
     <t>Cette ressource est-elle active?
-true  par défaut; false pour  indiquer que la ressource a été supprimés</t>
+true  par défaut; false pour indiquer que la ressource a été supprimée</t>
   </si>
   <si>
     <t>Whether this practitioner's record is in active use.</t>
@@ -4434,7 +4434,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>132</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>225</v>
       </c>
@@ -11676,7 +11676,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>324</v>
       </c>
@@ -15557,7 +15557,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
         <v>371</v>
       </c>
@@ -19442,7 +19442,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="119" hidden="true">
+    <row r="119">
       <c r="A119" t="s" s="2">
         <v>415</v>
       </c>
@@ -22418,7 +22418,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="141" hidden="true">
+    <row r="141">
       <c r="A141" t="s" s="2">
         <v>548</v>
       </c>
@@ -23637,7 +23637,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="150" hidden="true">
+    <row r="150">
       <c r="A150" t="s" s="2">
         <v>567</v>
       </c>
@@ -26075,7 +26075,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="168" hidden="true">
+    <row r="168">
       <c r="A168" t="s" s="2">
         <v>595</v>
       </c>
@@ -26214,7 +26214,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="169" hidden="true">
+    <row r="169">
       <c r="A169" t="s" s="2">
         <v>603</v>
       </c>
@@ -27026,7 +27026,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="175" hidden="true">
+    <row r="175">
       <c r="A175" t="s" s="2">
         <v>637</v>
       </c>
@@ -27161,7 +27161,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="176" hidden="true">
+    <row r="176">
       <c r="A176" t="s" s="2">
         <v>647</v>
       </c>
@@ -27429,7 +27429,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="178" hidden="true">
+    <row r="178">
       <c r="A178" t="s" s="2">
         <v>666</v>
       </c>
@@ -34389,7 +34389,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="230" hidden="true">
+    <row r="230">
       <c r="A230" t="s" s="2">
         <v>789</v>
       </c>
@@ -34931,7 +34931,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="234" hidden="true">
+    <row r="234">
       <c r="A234" t="s" s="2">
         <v>821</v>
       </c>
@@ -36944,7 +36944,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="249" hidden="true">
+    <row r="249">
       <c r="A249" t="s" s="2">
         <v>899</v>
       </c>
@@ -40424,7 +40424,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="275" hidden="true">
+    <row r="275">
       <c r="A275" t="s" s="2">
         <v>950</v>
       </c>
@@ -40561,7 +40561,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="276" hidden="true">
+    <row r="276">
       <c r="A276" t="s" s="2">
         <v>953</v>
       </c>
@@ -42854,7 +42854,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="293" hidden="true">
+    <row r="293">
       <c r="A293" t="s" s="2">
         <v>986</v>
       </c>
@@ -42991,7 +42991,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="294" hidden="true">
+    <row r="294">
       <c r="A294" t="s" s="2">
         <v>991</v>
       </c>
@@ -43265,7 +43265,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="296" hidden="true">
+    <row r="296">
       <c r="A296" t="s" s="2">
         <v>995</v>
       </c>
@@ -45284,7 +45284,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="311" hidden="true">
+    <row r="311">
       <c r="A311" t="s" s="2">
         <v>1017</v>
       </c>
@@ -45421,7 +45421,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="312" hidden="true">
+    <row r="312">
       <c r="A312" t="s" s="2">
         <v>1022</v>
       </c>
@@ -46503,7 +46503,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="320" hidden="true">
+    <row r="320">
       <c r="A320" t="s" s="2">
         <v>1036</v>
       </c>
@@ -46640,12 +46640,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AU320">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
